--- a/Assignment 1/Story #1.xlsx
+++ b/Assignment 1/Story #1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edna\Desktop\Softray Sprint\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853B1A4-4F39-493F-8919-58B3D8B86F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1F7A2-7AA0-4EDD-9498-5ED97F27DE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke test" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="279">
   <si>
     <t>Test case ID</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>POS017</t>
-  </si>
-  <si>
-    <t>POS018</t>
   </si>
   <si>
     <t>First Name = "EdnaEdnaEdnaEdnaEdnaEdnaEdnaEdnaEdn"</t>
@@ -730,174 +727,21 @@
     <t xml:space="preserve">This test is performed to ensure that the user </t>
   </si>
   <si>
-    <t>is able to input letters in First Name and</t>
-  </si>
-  <si>
-    <t>Last Name fileds</t>
-  </si>
-  <si>
-    <t>is able to input the maximum of 35 letters</t>
-  </si>
-  <si>
-    <t>in First Name and Last Name fileds</t>
-  </si>
-  <si>
-    <t>in Username filed</t>
-  </si>
-  <si>
-    <t>is able to input following special characters</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , ; . : - _ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the Username field</t>
-    </r>
-  </si>
-  <si>
-    <t>is able to input the maximum of 50 characters</t>
-  </si>
-  <si>
-    <t>is able to input the maximum of 30 characters</t>
-  </si>
-  <si>
-    <t>in Email filed</t>
-  </si>
-  <si>
-    <t>inputs a valid email</t>
-  </si>
-  <si>
-    <t>(Uppercase, Lowercase, Number, Special</t>
-  </si>
-  <si>
-    <t>character)</t>
-  </si>
-  <si>
-    <t>inputs a password with all required characters</t>
-  </si>
-  <si>
-    <t>has set up their password correctly and the</t>
-  </si>
-  <si>
-    <t>way they wanted to</t>
-  </si>
-  <si>
     <t xml:space="preserve">is still able to register without filling in the </t>
   </si>
   <si>
     <t>First Name and Date of Birth fields</t>
   </si>
   <si>
-    <t>First Name andLast Name fileds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can't select a future date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It makes sure that the Confirm Password and </t>
-  </si>
-  <si>
-    <t>Password match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is not able to register without filling in the </t>
-  </si>
-  <si>
-    <t>Last Name field</t>
-  </si>
-  <si>
-    <t>Username field</t>
-  </si>
-  <si>
-    <t>Password field</t>
-  </si>
-  <si>
-    <t>Confirm Password field</t>
-  </si>
-  <si>
-    <t>Email field</t>
-  </si>
-  <si>
-    <t>This test is performed to ensure that the Sign up page</t>
-  </si>
-  <si>
-    <t>This test is performed to ensure that the Sign up form</t>
-  </si>
-  <si>
     <t>Make a query in the system database to view</t>
   </si>
   <si>
-    <t>all registered emails and search for an email</t>
-  </si>
-  <si>
-    <t>that you want to input to check if its already</t>
-  </si>
-  <si>
-    <t>in the database. If it is not registered,</t>
-  </si>
-  <si>
-    <t>you can test it</t>
-  </si>
-  <si>
-    <t>all registered usernames and search for a</t>
-  </si>
-  <si>
-    <t>username that you want to input to check if its</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> already in the database. If it is not registered,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can select a past or current date and that it's </t>
-  </si>
-  <si>
-    <t>shown in the desired format (MM/DD/YYYY)</t>
-  </si>
-  <si>
     <t>all registered usernames and choose one to test</t>
   </si>
   <si>
     <t>all registered emails and choose one to test</t>
   </si>
   <si>
-    <r>
-      <t>than the following:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , ; . : - _ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the Username field </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Date of Birth field. This is to test further the </t>
   </si>
   <si>
@@ -967,9 +811,6 @@
     <t>All tests should be performed in these suported browsers: Google Chrome, Mozilla Firefox, Microsoft Edge</t>
   </si>
   <si>
-    <t>SMK4</t>
-  </si>
-  <si>
     <t>and a "Register" button</t>
   </si>
   <si>
@@ -1000,12 +841,6 @@
     <t>Sign up verification page is displayed</t>
   </si>
   <si>
-    <t>contains all fields and buttons required</t>
-  </si>
-  <si>
-    <t>is successfully opened in the desired browser</t>
-  </si>
-  <si>
     <t>1.Browser is open</t>
   </si>
   <si>
@@ -1111,27 +946,6 @@
     <t>2. Enter data in the testing field</t>
   </si>
   <si>
-    <t>is not able to Enter more than 30 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is not able to Enter other special characters other </t>
-  </si>
-  <si>
-    <t>is not able to Enter more than 50 characters</t>
-  </si>
-  <si>
-    <t>Enters a valid email that contains an "@"</t>
-  </si>
-  <si>
-    <t>Enters a password with all required characters</t>
-  </si>
-  <si>
-    <t>is not able to Enter anything other than letters in</t>
-  </si>
-  <si>
-    <t>is not able to Enter more than 35 letters</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.Enter an email that already exists </t>
   </si>
   <si>
@@ -1157,13 +971,34 @@
   </si>
   <si>
     <t>This is a preparation for testing created by the mock-up version. Full testing will be executed once these functionalities have been developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is performed to make sure that the </t>
+  </si>
+  <si>
+    <t>email a user enters does not already belong to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an account. This is done by making a query in </t>
+  </si>
+  <si>
+    <t>the database which will show registered emails.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username a user enters does not already belong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to an account. This is done by making a query in </t>
+  </si>
+  <si>
+    <t>the database which will show registered usernames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,13 +1029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1765,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA521C3E-1A4A-4416-B6DD-E2F803E3EE66}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1621,7 @@
     <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -1802,7 +1630,7 @@
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1858,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1867,33 +1695,29 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="36"/>
-      <c r="O7" s="40" t="s">
-        <v>219</v>
-      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="24"/>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="28" t="s">
-        <v>269</v>
-      </c>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1930,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1944,34 +1768,30 @@
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="24" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="40" t="s">
-        <v>220</v>
-      </c>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="N13" s="27"/>
-      <c r="O13" s="28" t="s">
-        <v>268</v>
-      </c>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F14" s="24" t="s">
@@ -1982,7 +1802,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="34"/>
@@ -2009,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>23</v>
@@ -2019,19 +1839,19 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="30" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="40"/>
@@ -2044,13 +1864,13 @@
       <c r="E18" s="24"/>
       <c r="F18" s="30"/>
       <c r="H18" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="28"/>
@@ -2062,10 +1882,10 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="I19" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="41"/>
@@ -2077,7 +1897,7 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="I20" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="41"/>
@@ -2092,7 +1912,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -2100,11 +1920,6 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="42"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>257</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2114,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E9BB71-C469-403B-848E-349BE97BAC1B}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="C76" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,14 +1951,14 @@
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="32" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="44.140625" customWidth="1"/>
+    <col min="15" max="15" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2152,7 +1967,7 @@
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2208,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -2220,22 +2035,20 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="36"/>
-      <c r="O7" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2243,27 +2056,23 @@
         <v>51</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="28" t="s">
-        <v>191</v>
-      </c>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
       <c r="H9" s="3"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="28" t="s">
-        <v>192</v>
-      </c>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2291,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -2304,22 +2113,20 @@
         <v>36</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
         <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2327,34 +2134,30 @@
         <v>52</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="H14" s="3" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
       <c r="M14" s="13"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="41" t="s">
-        <v>194</v>
-      </c>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2394,7 +2197,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -2407,37 +2210,37 @@
         <v>37</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="40" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="G18" s="24" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="28" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2445,7 +2248,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="H19" s="3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -2453,7 +2256,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="36"/>
       <c r="O19" s="41" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2465,7 +2268,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="23" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2474,7 +2277,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="36"/>
       <c r="O20" s="41" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2486,7 +2289,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2494,16 +2297,14 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="42" t="s">
-        <v>225</v>
-      </c>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2516,51 +2317,45 @@
         <v>38</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="H23" s="24" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N23" s="24"/>
-      <c r="O23" s="28" t="s">
-        <v>199</v>
-      </c>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="H24" s="3" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
       <c r="M24" s="13"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="41" t="s">
-        <v>195</v>
-      </c>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -2600,7 +2395,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2613,22 +2408,20 @@
         <v>39</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -2636,18 +2429,16 @@
         <v>40</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N28" s="24"/>
-      <c r="O28" s="28" t="s">
-        <v>196</v>
-      </c>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
@@ -2659,9 +2450,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="13"/>
       <c r="N29" s="36"/>
-      <c r="O29" s="41" t="s">
-        <v>197</v>
-      </c>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -2701,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -2714,37 +2503,37 @@
         <v>41</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="40" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="G33" s="24" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="28" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,7 +2541,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="H34" s="3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -2760,7 +2549,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="36"/>
       <c r="O34" s="41" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2772,7 +2561,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -2781,7 +2570,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="36"/>
       <c r="O35" s="41" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2793,7 +2582,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="7"/>
       <c r="H36" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2801,16 +2590,14 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="42" t="s">
-        <v>225</v>
-      </c>
+      <c r="O36" s="42"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -2823,51 +2610,45 @@
         <v>42</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="H38" s="24" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N38" s="24"/>
-      <c r="O38" s="28" t="s">
-        <v>198</v>
-      </c>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="H39" s="23" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="14"/>
       <c r="M39" s="13"/>
       <c r="N39" s="36"/>
-      <c r="O39" s="41" t="s">
-        <v>200</v>
-      </c>
+      <c r="O39" s="41"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -2906,7 +2687,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -2919,35 +2700,31 @@
         <v>44</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O42" s="40"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="H43" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N43" s="24"/>
-      <c r="O43" s="28" t="s">
-        <v>201</v>
-      </c>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -2998,7 +2775,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -3008,54 +2785,48 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="22" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I47" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="L47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O47" s="40"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N48" s="24"/>
-      <c r="O48" s="41" t="s">
-        <v>229</v>
-      </c>
+      <c r="O48" s="41"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="H49" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="14"/>
       <c r="M49" s="13"/>
       <c r="N49" s="36"/>
-      <c r="O49" s="41" t="s">
-        <v>230</v>
-      </c>
+      <c r="O49" s="41"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -3091,10 +2862,10 @@
     </row>
     <row r="52" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>23</v>
@@ -3104,17 +2875,17 @@
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="30" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="30" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="K52" s="27"/>
       <c r="L52" s="36"/>
@@ -3124,14 +2895,14 @@
     </row>
     <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F53" s="24" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="27" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="K53" s="27"/>
       <c r="L53" s="36"/>
@@ -3141,11 +2912,11 @@
     </row>
     <row r="54" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H54" s="30" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="K54" s="27"/>
       <c r="L54" s="36"/>
@@ -3161,7 +2932,7 @@
       <c r="E55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="30" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
@@ -3193,7 +2964,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -3206,22 +2977,20 @@
         <v>47</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L57" s="4"/>
       <c r="N57" s="4"/>
-      <c r="O57" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O57" s="40"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -3229,18 +2998,16 @@
         <v>45</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N58" s="24"/>
-      <c r="O58" s="41" t="s">
-        <v>204</v>
-      </c>
+      <c r="O58" s="41"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
@@ -3256,9 +3023,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="13"/>
       <c r="N59" s="36"/>
-      <c r="O59" s="41" t="s">
-        <v>202</v>
-      </c>
+      <c r="O59" s="41"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -3273,9 +3038,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="13"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="41" t="s">
-        <v>203</v>
-      </c>
+      <c r="O60" s="41"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
@@ -3299,7 +3062,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -3312,57 +3075,51 @@
         <v>48</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O62" s="40"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="G63" s="27" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N63" s="24"/>
-      <c r="O63" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="O63" s="41"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="H64" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="14"/>
       <c r="M64" s="13"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="41" t="s">
-        <v>206</v>
-      </c>
+      <c r="O64" s="41"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -3401,7 +3158,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -3411,41 +3168,41 @@
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N68" s="24"/>
       <c r="O68" s="41" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3454,10 +3211,10 @@
       <c r="C69" s="13"/>
       <c r="G69" s="24"/>
       <c r="H69" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
@@ -3465,7 +3222,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="36"/>
       <c r="O69" s="41" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3476,10 +3233,10 @@
       <c r="E70" s="13"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
@@ -3497,10 +3254,10 @@
       <c r="F71" s="17"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -3514,7 +3271,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -3524,41 +3281,41 @@
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="F73" s="27"/>
       <c r="H73" s="30" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N73" s="24"/>
       <c r="O73" s="41" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3567,10 +3324,10 @@
       <c r="C74" s="13"/>
       <c r="F74" s="27"/>
       <c r="H74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J74" s="27"/>
       <c r="K74" s="13"/>
@@ -3578,7 +3335,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="36"/>
       <c r="O74" s="41" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3589,10 +3346,10 @@
       <c r="E75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J75" s="27"/>
       <c r="K75" s="13"/>
@@ -3600,7 +3357,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="36"/>
       <c r="O75" s="41" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3613,7 +3370,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="7"/>
@@ -3627,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -3637,24 +3394,24 @@
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3662,17 +3419,17 @@
       <c r="F78" s="27"/>
       <c r="G78" s="24"/>
       <c r="H78" s="30" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N78" s="24"/>
       <c r="O78" s="41" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -3682,10 +3439,10 @@
       <c r="F79" s="27"/>
       <c r="G79" s="24"/>
       <c r="H79" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
@@ -3693,7 +3450,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="36"/>
       <c r="O79" s="41" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -3705,10 +3462,10 @@
       <c r="F80" s="24"/>
       <c r="G80" s="27"/>
       <c r="H80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -3716,7 +3473,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="36"/>
       <c r="O80" s="41" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -3729,7 +3486,7 @@
       <c r="G81" s="29"/>
       <c r="H81" s="38"/>
       <c r="I81" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -3743,7 +3500,7 @@
         <v>61</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -3753,19 +3510,19 @@
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="24" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L82" s="4"/>
       <c r="N82" s="4"/>
@@ -3774,19 +3531,19 @@
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="F83" s="24" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J83" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="N83" s="24"/>
       <c r="O83" s="41"/>
@@ -3798,13 +3555,13 @@
       <c r="F84" s="27"/>
       <c r="G84" s="24"/>
       <c r="H84" s="20" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J84" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="14"/>
@@ -3821,13 +3578,13 @@
       <c r="F85" s="24"/>
       <c r="G85" s="27"/>
       <c r="H85" s="20" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="14"/>
@@ -3843,10 +3600,10 @@
       <c r="E86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="20" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
@@ -3864,7 +3621,7 @@
       <c r="F87" s="31"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="7"/>
@@ -3879,7 +3636,7 @@
         <v>62</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -3889,19 +3646,19 @@
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="32" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L88" s="4"/>
       <c r="N88" s="4"/>
@@ -3910,17 +3667,17 @@
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="F89" s="27" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G89" s="24"/>
       <c r="H89" s="20" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="N89" s="24"/>
       <c r="O89" s="41"/>
@@ -3929,13 +3686,13 @@
       <c r="A90" s="27"/>
       <c r="F90" s="27"/>
       <c r="H90" s="20" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="O90" s="41"/>
     </row>
@@ -3946,13 +3703,13 @@
       <c r="F91" s="27"/>
       <c r="G91" s="24"/>
       <c r="H91" s="20" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J91" s="27" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="K91" s="13"/>
       <c r="L91" s="14"/>
@@ -3966,10 +3723,10 @@
       <c r="C92" s="27"/>
       <c r="F92" s="27"/>
       <c r="H92" s="20" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
@@ -3987,7 +3744,7 @@
       <c r="F93" s="24"/>
       <c r="G93" s="27"/>
       <c r="H93" s="20" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="I93" s="24"/>
       <c r="J93" s="13"/>
@@ -4006,7 +3763,7 @@
       <c r="F94" s="31"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="I94" s="29"/>
       <c r="J94" s="7"/>
@@ -4015,86 +3772,6 @@
       <c r="M94" s="7"/>
       <c r="N94" s="29"/>
       <c r="O94" s="42"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="L95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="40"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="41"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="41"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="41"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4106,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95A0DB-AB3F-4532-8A04-9177057776F3}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F73" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +3810,7 @@
     <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -4142,7 +3819,7 @@
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4190,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4198,7 +3875,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -4207,25 +3884,23 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -4233,35 +3908,31 @@
         <v>51</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="28" t="s">
-        <v>310</v>
-      </c>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="28" t="s">
-        <v>209</v>
-      </c>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="I10" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="28"/>
@@ -4274,7 +3945,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
       <c r="I11" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -4288,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -4301,22 +3972,20 @@
         <v>36</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -4324,36 +3993,32 @@
         <v>52</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="28" t="s">
-        <v>311</v>
-      </c>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="H14" s="3" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
       <c r="M14" s="13"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="41" t="s">
-        <v>194</v>
-      </c>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -4365,7 +4030,7 @@
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
@@ -4395,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -4408,43 +4073,43 @@
         <v>37</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="40" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G18" s="27" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="28" t="s">
-        <v>231</v>
+        <v>102</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4461,7 +4126,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="23" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -4469,7 +4134,7 @@
       <c r="L20" s="14"/>
       <c r="M20" s="13"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="41"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -4493,7 +4158,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -4506,38 +4171,34 @@
         <v>38</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="H23" s="24" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N23" s="6"/>
-      <c r="O23" s="28" t="s">
-        <v>305</v>
-      </c>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -4549,9 +4210,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="13"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="41" t="s">
-        <v>195</v>
-      </c>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -4591,7 +4250,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4604,37 +4263,33 @@
         <v>39</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" s="6"/>
-      <c r="O28" s="28" t="s">
-        <v>306</v>
-      </c>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
@@ -4645,9 +4300,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="41" t="s">
-        <v>233</v>
-      </c>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -4686,7 +4339,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -4696,37 +4349,37 @@
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="L32" s="4"/>
       <c r="N32" s="5"/>
       <c r="O32" s="40" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="G33" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="28" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -4734,10 +4387,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="G34" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -4755,7 +4408,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="23" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -4787,7 +4440,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -4800,34 +4453,30 @@
         <v>42</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L37" s="4"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H38" s="24" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N38" s="6"/>
-      <c r="O38" s="28" t="s">
-        <v>307</v>
-      </c>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
@@ -4838,9 +4487,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="41" t="s">
-        <v>200</v>
-      </c>
+      <c r="O39" s="41"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
@@ -4875,10 +4522,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -4888,35 +4535,31 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>98</v>
-      </c>
-      <c r="J42" t="s">
-        <v>99</v>
       </c>
       <c r="L42" s="4"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O42" s="40"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="H43" s="24" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="N43" s="6"/>
-      <c r="O43" s="28" t="s">
-        <v>308</v>
-      </c>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -4964,10 +4607,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -4977,42 +4620,38 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47" s="4"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O47" s="40"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="F48" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N48" s="6"/>
-      <c r="O48" s="41" t="s">
-        <v>210</v>
-      </c>
+      <c r="O48" s="41"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="H49" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -5056,10 +4695,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -5072,22 +4711,20 @@
         <v>47</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O52" s="40"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -5095,18 +4732,16 @@
         <v>45</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="41" t="s">
-        <v>309</v>
-      </c>
+      <c r="O53" s="41"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -5117,18 +4752,16 @@
       </c>
       <c r="H54" s="3"/>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="14"/>
       <c r="M54" s="13"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="41" t="s">
-        <v>202</v>
-      </c>
+      <c r="O54" s="41"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -5138,18 +4771,16 @@
       <c r="E55" s="13"/>
       <c r="G55" s="13"/>
       <c r="I55" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="14"/>
       <c r="M55" s="13"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="41" t="s">
-        <v>203</v>
-      </c>
+      <c r="O55" s="41"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
@@ -5161,7 +4792,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -5172,10 +4803,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -5188,34 +4819,30 @@
         <v>48</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L57" s="4"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O57" s="40"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H58" s="24" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="I58" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="N58" s="6"/>
-      <c r="O58" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="O58" s="41"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
@@ -5226,9 +4853,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="13"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="41" t="s">
-        <v>206</v>
-      </c>
+      <c r="O59" s="41"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
@@ -5242,9 +4867,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="13"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="41" t="s">
-        <v>211</v>
-      </c>
+      <c r="O60" s="41"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -5261,16 +4884,14 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="18"/>
-      <c r="O61" s="42" t="s">
-        <v>212</v>
-      </c>
+      <c r="O61" s="42"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -5280,44 +4901,40 @@
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L62" s="4"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O62" s="40"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F63" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N63" s="6"/>
-      <c r="O63" s="41" t="s">
-        <v>213</v>
-      </c>
+      <c r="O63" s="41"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
@@ -5325,19 +4942,17 @@
       <c r="F64" s="27"/>
       <c r="G64" s="24"/>
       <c r="H64" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="14"/>
       <c r="M64" s="13"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="41" t="s">
-        <v>214</v>
-      </c>
+      <c r="O64" s="41"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
@@ -5347,10 +4962,10 @@
       <c r="F65" s="24"/>
       <c r="G65" s="27"/>
       <c r="H65" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -5369,7 +4984,7 @@
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -5380,10 +4995,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -5393,45 +5008,41 @@
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L67" s="4"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O67" s="40"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="F68" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G68" s="24"/>
       <c r="H68" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N68" s="6"/>
-      <c r="O68" s="41" t="s">
-        <v>213</v>
-      </c>
+      <c r="O68" s="41"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -5440,19 +5051,17 @@
       <c r="F69" s="27"/>
       <c r="G69" s="24"/>
       <c r="H69" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="14"/>
       <c r="M69" s="13"/>
       <c r="N69" s="15"/>
-      <c r="O69" s="41" t="s">
-        <v>215</v>
-      </c>
+      <c r="O69" s="41"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -5463,10 +5072,10 @@
       <c r="F70" s="24"/>
       <c r="G70" s="27"/>
       <c r="H70" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
@@ -5485,7 +5094,7 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -5496,10 +5105,10 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -5509,45 +5118,41 @@
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L72" s="4"/>
       <c r="N72" s="5"/>
-      <c r="O72" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O72" s="40"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="F73" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N73" s="6"/>
-      <c r="O73" s="41" t="s">
-        <v>213</v>
-      </c>
+      <c r="O73" s="41"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
@@ -5556,19 +5161,17 @@
       <c r="F74" s="27"/>
       <c r="G74" s="24"/>
       <c r="H74" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="14"/>
       <c r="M74" s="13"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="41" t="s">
-        <v>218</v>
-      </c>
+      <c r="O74" s="41"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -5579,10 +5182,10 @@
       <c r="F75" s="24"/>
       <c r="G75" s="27"/>
       <c r="H75" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
@@ -5601,7 +5204,7 @@
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -5612,10 +5215,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -5625,44 +5228,40 @@
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L77" s="4"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O77" s="40"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F78" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N78" s="6"/>
-      <c r="O78" s="41" t="s">
-        <v>213</v>
-      </c>
+      <c r="O78" s="41"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
@@ -5670,19 +5269,17 @@
       <c r="F79" s="27"/>
       <c r="G79" s="24"/>
       <c r="H79" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="14"/>
       <c r="M79" s="13"/>
       <c r="N79" s="15"/>
-      <c r="O79" s="41" t="s">
-        <v>216</v>
-      </c>
+      <c r="O79" s="41"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
@@ -5692,10 +5289,10 @@
       <c r="F80" s="24"/>
       <c r="G80" s="27"/>
       <c r="H80" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -5714,7 +5311,7 @@
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -5725,10 +5322,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>23</v>
@@ -5737,24 +5334,22 @@
         <v>13</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N82" s="26"/>
-      <c r="O82" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="O82" s="40"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
@@ -5762,47 +5357,43 @@
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="F83" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N83" s="28"/>
-      <c r="O83" s="41" t="s">
-        <v>213</v>
-      </c>
+      <c r="O83" s="41"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="F84" s="27"/>
       <c r="G84" s="24"/>
       <c r="H84" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N84" s="28"/>
-      <c r="O84" s="41" t="s">
-        <v>217</v>
-      </c>
+      <c r="O84" s="41"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="F85" s="24"/>
       <c r="G85" s="27"/>
       <c r="H85" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N85" s="28"/>
       <c r="O85" s="41"/>
@@ -5817,7 +5408,7 @@
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
@@ -5828,10 +5419,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>23</v>
@@ -5840,36 +5431,36 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O87" s="47"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="23" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="O88" s="48"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G89" s="24"/>
       <c r="H89" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O89" s="48"/>
     </row>
